--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1752895.076142789</v>
+        <v>1750350.854206762</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283206</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>140.7094048023547</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663196</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>187.5255871663196</v>
       </c>
-      <c r="U2" t="n">
-        <v>187.5255871663196</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>37.11181591693491</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>153.0783995369557</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V3" t="n">
-        <v>101.058145338241</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553089</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.62893363309567</v>
       </c>
       <c r="T4" t="n">
-        <v>27.06656500828625</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>187.5255871663196</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>187.5255871663196</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>82.95181452480209</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>42.04790185035792</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>138.9302988490118</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>23.85182688522573</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>32.84094506779596</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>193.8176677405581</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>279.1373820568242</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346051</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734612</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>254.3268193276533</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719217</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>158.403818338556</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>186.6371736311885</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>38.58701732192925</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418045</v>
       </c>
       <c r="T10" t="n">
-        <v>21.4797695231689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>185.7495818221983</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>4.524736141320318e-12</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161864144</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>20.38427178197973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F22" t="n">
-        <v>74.95497330697962</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.6255456814082</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428033</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>1.594095449514112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057753</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411496</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205763855</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759377</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,19 +4189,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>60.11729550773637</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127781</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.7826784871767</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6519665656063</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656063</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656063</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912178</v>
+        <v>344.390670727197</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>331.1605361513808</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330557</v>
@@ -4355,25 +4355,25 @@
         <v>738.6222485201457</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201457</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036612</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="U2" t="n">
-        <v>359.7826784871767</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="V2" t="n">
-        <v>359.7826784871767</v>
+        <v>388.8228542207792</v>
       </c>
       <c r="W2" t="n">
-        <v>359.7826784871767</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871767</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871767</v>
+        <v>351.3361714764005</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>620.8403575992347</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>620.8403575992347</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>471.9059479379835</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>312.668492932528</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330557</v>
@@ -4416,10 +4416,10 @@
         <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140238</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476339</v>
@@ -4437,22 +4437,22 @@
         <v>722.9192922843266</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843266</v>
+        <v>568.2946462874016</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843266</v>
+        <v>378.8748612709171</v>
       </c>
       <c r="V3" t="n">
-        <v>620.8403575992347</v>
+        <v>378.8748612709171</v>
       </c>
       <c r="W3" t="n">
-        <v>620.8403575992347</v>
+        <v>378.8748612709171</v>
       </c>
       <c r="X3" t="n">
-        <v>620.8403575992347</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y3" t="n">
-        <v>620.8403575992347</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.5459632968225</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="C4" t="n">
-        <v>340.5459632968225</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>340.5459632968225</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>340.5459632968225</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330557</v>
@@ -4498,40 +4498,40 @@
         <v>465.2530182692146</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638711</v>
+        <v>633.0454302264744</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652786</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846261</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846261</v>
+        <v>615.9383389575105</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846261</v>
+        <v>562.7777999341815</v>
       </c>
       <c r="T4" t="n">
-        <v>719.3855333297915</v>
+        <v>562.7777999341815</v>
       </c>
       <c r="U4" t="n">
-        <v>529.965748313307</v>
+        <v>562.7777999341815</v>
       </c>
       <c r="V4" t="n">
-        <v>529.965748313307</v>
+        <v>562.7777999341815</v>
       </c>
       <c r="W4" t="n">
-        <v>529.965748313307</v>
+        <v>373.358014917697</v>
       </c>
       <c r="X4" t="n">
-        <v>340.5459632968225</v>
+        <v>373.358014917697</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.5459632968225</v>
+        <v>183.9382299012125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>629.1632522531625</v>
+        <v>499.5996012515621</v>
       </c>
       <c r="C5" t="n">
-        <v>629.1632522531625</v>
+        <v>499.5996012515621</v>
       </c>
       <c r="D5" t="n">
-        <v>629.1632522531625</v>
+        <v>499.5996012515621</v>
       </c>
       <c r="E5" t="n">
-        <v>629.1632522531625</v>
+        <v>499.5996012515621</v>
       </c>
       <c r="F5" t="n">
-        <v>545.3735406119482</v>
+        <v>88.61369646195459</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038228</v>
+        <v>76.20183919423322</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038228</v>
+        <v>76.20183919423322</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4595,22 +4595,22 @@
         <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1220.801820570945</v>
       </c>
       <c r="V5" t="n">
-        <v>1355.397665784356</v>
+        <v>889.7389332273739</v>
       </c>
       <c r="W5" t="n">
-        <v>1002.629010514242</v>
+        <v>889.7389332273739</v>
       </c>
       <c r="X5" t="n">
-        <v>629.1632522531625</v>
+        <v>889.7389332273739</v>
       </c>
       <c r="Y5" t="n">
-        <v>629.1632522531625</v>
+        <v>499.5996012515621</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757.3665347679753</v>
+        <v>482.2347109302873</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3665347679753</v>
+        <v>341.9010757292653</v>
       </c>
       <c r="D6" t="n">
-        <v>608.432125106724</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1946701012685</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6601121281534</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067707</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>121.7846078506383</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>924.7146197277257</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>1210.048490161058</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4671,25 +4671,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1686.460553127927</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1662.367798698406</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="V6" t="n">
-        <v>1427.215690466664</v>
+        <v>1112.53890488409</v>
       </c>
       <c r="W6" t="n">
-        <v>1172.978333738462</v>
+        <v>858.3015481558882</v>
       </c>
       <c r="X6" t="n">
-        <v>965.1268335329291</v>
+        <v>650.4500479503554</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3665347679753</v>
+        <v>650.4500479503554</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.5741130991528</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="C7" t="n">
-        <v>648.5741130991528</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="D7" t="n">
-        <v>648.5741130991528</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>500.6610195167597</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
-        <v>353.7710720188493</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>185.4492996119732</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1259.958993315208</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1057.486746475509</v>
       </c>
       <c r="T7" t="n">
-        <v>1097.3562431407</v>
+        <v>833.0755872509471</v>
       </c>
       <c r="U7" t="n">
-        <v>1097.3562431407</v>
+        <v>543.9389602430492</v>
       </c>
       <c r="V7" t="n">
-        <v>1097.3562431407</v>
+        <v>543.9389602430492</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.3562431407</v>
+        <v>254.5217902060886</v>
       </c>
       <c r="X7" t="n">
-        <v>869.3666922426829</v>
+        <v>254.5217902060886</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.5741130991528</v>
+        <v>33.72921106255854</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>853.0794898987633</v>
+        <v>1056.230592694564</v>
       </c>
       <c r="C8" t="n">
-        <v>853.0794898987633</v>
+        <v>774.2736411220145</v>
       </c>
       <c r="D8" t="n">
-        <v>853.0794898987633</v>
+        <v>774.2736411220145</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2912373005191</v>
+        <v>774.2736411220145</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091158</v>
+        <v>767.328140372811</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761815</v>
+        <v>351.3379503491136</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761815</v>
+        <v>44.35554652761851</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761815</v>
+        <v>44.35554652761851</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872701</v>
+        <v>156.892704587272</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158984</v>
+        <v>376.2952505159024</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985255</v>
+        <v>685.3852714985319</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.97691255694</v>
+        <v>1060.976912556949</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415484</v>
+        <v>1447.259827415496</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975104</v>
+        <v>1798.680568975118</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631081</v>
+        <v>2064.109040631098</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.26202220812</v>
+        <v>2215.262022208137</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380926</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380907</v>
+        <v>2086.573660650157</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380907</v>
+        <v>2086.573660650157</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380907</v>
+        <v>1832.969764734498</v>
       </c>
       <c r="V8" t="n">
-        <v>1886.714439037336</v>
+        <v>1832.969764734498</v>
       </c>
       <c r="W8" t="n">
-        <v>1629.818661938697</v>
+        <v>1832.969764734498</v>
       </c>
       <c r="X8" t="n">
-        <v>1629.818661938697</v>
+        <v>1832.969764734498</v>
       </c>
       <c r="Y8" t="n">
-        <v>1239.679329962885</v>
+        <v>1442.830432758686</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>905.6133829345005</v>
+        <v>810.3691327353168</v>
       </c>
       <c r="C9" t="n">
-        <v>731.1603536533735</v>
+        <v>635.9161034541899</v>
       </c>
       <c r="D9" t="n">
-        <v>582.2259439921222</v>
+        <v>486.9816937929386</v>
       </c>
       <c r="E9" t="n">
-        <v>422.9884889866668</v>
+        <v>327.7442387874831</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4539310135518</v>
+        <v>181.2096808143681</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5997967268021</v>
+        <v>44.35554652761851</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761815</v>
+        <v>44.35554652761851</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761815</v>
+        <v>44.35554652761851</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424034</v>
+        <v>92.56405995424146</v>
       </c>
       <c r="K9" t="n">
-        <v>514.9354973067599</v>
+        <v>253.1149126643096</v>
       </c>
       <c r="L9" t="n">
-        <v>777.1384731364357</v>
+        <v>515.3178884939871</v>
       </c>
       <c r="M9" t="n">
-        <v>1102.47384678654</v>
+        <v>1064.217776773266</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.828524627294</v>
+        <v>1412.572454614021</v>
       </c>
       <c r="O9" t="n">
-        <v>1747.285203042445</v>
+        <v>1709.029133029174</v>
       </c>
       <c r="P9" t="n">
-        <v>1965.884757309773</v>
+        <v>2121.568509855281</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380926</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380926</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472974</v>
+        <v>2079.218696472992</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.59648406443</v>
+        <v>1884.596484064449</v>
       </c>
       <c r="U9" t="n">
-        <v>1884.59648406443</v>
+        <v>1656.49633232259</v>
       </c>
       <c r="V9" t="n">
-        <v>1649.444375832687</v>
+        <v>1421.344224090848</v>
       </c>
       <c r="W9" t="n">
-        <v>1489.440518925055</v>
+        <v>1167.106867362646</v>
       </c>
       <c r="X9" t="n">
-        <v>1281.589018719522</v>
+        <v>978.5844697553848</v>
       </c>
       <c r="Y9" t="n">
-        <v>1073.828719954568</v>
+        <v>978.5844697553848</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.3259130842181</v>
+        <v>252.2685146291913</v>
       </c>
       <c r="C10" t="n">
-        <v>657.3897301563112</v>
+        <v>83.33233170128443</v>
       </c>
       <c r="D10" t="n">
-        <v>507.2730907439754</v>
+        <v>83.33233170128443</v>
       </c>
       <c r="E10" t="n">
-        <v>359.3599971615823</v>
+        <v>83.33233170128443</v>
       </c>
       <c r="F10" t="n">
-        <v>212.470049663672</v>
+        <v>83.33233170128443</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761815</v>
+        <v>83.33233170128443</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761815</v>
+        <v>44.35554652761851</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761815</v>
+        <v>44.35554652761851</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691993</v>
+        <v>60.95254262692077</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274024</v>
+        <v>218.063342327404</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918425</v>
+        <v>474.6375091918451</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921694</v>
+        <v>755.5481168921732</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629316</v>
+        <v>1035.213914629321</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546128</v>
+        <v>1277.514248546134</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659237</v>
+        <v>1461.323360659243</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155965</v>
+        <v>1505.148182155972</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155965</v>
+        <v>1505.148182155972</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155965</v>
+        <v>1306.288073426877</v>
       </c>
       <c r="T10" t="n">
-        <v>1483.451445263875</v>
+        <v>1306.288073426877</v>
       </c>
       <c r="U10" t="n">
-        <v>1483.451445263875</v>
+        <v>1017.162752015569</v>
       </c>
       <c r="V10" t="n">
-        <v>1228.766957057988</v>
+        <v>762.4782638096821</v>
       </c>
       <c r="W10" t="n">
-        <v>1228.766957057988</v>
+        <v>473.0610937727214</v>
       </c>
       <c r="X10" t="n">
-        <v>1228.766957057988</v>
+        <v>473.0610937727214</v>
       </c>
       <c r="Y10" t="n">
-        <v>1007.974377914458</v>
+        <v>252.2685146291913</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5282,46 +5282,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1246.075525424376</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>261.8464821474216</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.8464821474216</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230157</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5704,19 +5704,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,31 +5744,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>776.4664207350971</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>626.3497813227614</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>478.4366877403683</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400699</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C25" t="n">
-        <v>344.917417812163</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D25" t="n">
-        <v>344.917417812163</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>344.917417812163</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>344.917417812163</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270429</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>634.334587849125</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>486.4214942667319</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.8620388433919</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T31" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W31" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>980.3030828171618</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.5105036736317</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,13 +7017,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,19 +7254,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7339,43 +7339,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852254</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7576,43 +7576,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -8146,13 +8146,13 @@
         <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711115</v>
+        <v>145.8220995101048</v>
       </c>
       <c r="O4" t="n">
-        <v>98.86065188594046</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.37360602116058</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>147.359858416601</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>225.822742049669</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>195.8988106654314</v>
       </c>
       <c r="Q9" t="n">
-        <v>157.2563157025157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688331</v>
+        <v>30.32522655688281</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.4693302300375</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F22" t="n">
-        <v>70.46607471595162</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462278</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.9899273368042</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194356</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715173</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788753</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944562</v>
       </c>
     </row>
     <row r="38">
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864789028</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26077,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>226.0671788815078</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>906816.5331505033</v>
+        <v>906816.5331505034</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970275</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881101.3618970276</v>
+        <v>881101.3618970275</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881101.3618970276</v>
+        <v>881101.3618970275</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>259123.8056778333</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296887</v>
+        <v>138712.7919296933</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745767</v>
+        <v>589678.7921745721</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>60247.15959153573</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.8733648425</v>
+        <v>33617.87336484368</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167279</v>
+        <v>154073.8510167267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296194</v>
+        <v>170385.5244296181</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26473,7 +26473,7 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969295</v>
+        <v>86168.0402996933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372308.6849372737</v>
+        <v>-372308.684937274</v>
       </c>
       <c r="C6" t="n">
         <v>10214.09128580819</v>
       </c>
       <c r="D6" t="n">
-        <v>158936.8379993902</v>
+        <v>158936.8379993863</v>
       </c>
       <c r="E6" t="n">
-        <v>-160194.1192845851</v>
+        <v>-160228.8572100162</v>
       </c>
       <c r="F6" t="n">
-        <v>429484.6728899917</v>
+        <v>429449.9349645558</v>
       </c>
       <c r="G6" t="n">
-        <v>429484.6728899916</v>
+        <v>429449.934964556</v>
       </c>
       <c r="H6" t="n">
-        <v>429484.6728899916</v>
+        <v>429449.9349645563</v>
       </c>
       <c r="I6" t="n">
-        <v>429484.6728899918</v>
+        <v>429449.9349645562</v>
       </c>
       <c r="J6" t="n">
-        <v>380419.7281614473</v>
+        <v>380384.9902360116</v>
       </c>
       <c r="K6" t="n">
-        <v>369237.5132984563</v>
+        <v>369202.7753730204</v>
       </c>
       <c r="L6" t="n">
-        <v>395866.7995251492</v>
+        <v>395832.0615997122</v>
       </c>
       <c r="M6" t="n">
-        <v>275410.8218732637</v>
+        <v>275376.0839478294</v>
       </c>
       <c r="N6" t="n">
-        <v>429484.6728899921</v>
+        <v>429449.9349645561</v>
       </c>
       <c r="O6" t="n">
-        <v>429484.6728899921</v>
+        <v>429449.9349645562</v>
       </c>
       <c r="P6" t="n">
-        <v>429484.6728899917</v>
+        <v>429449.9349645559</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790437</v>
+        <v>863.7717861790475</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952268</v>
+        <v>554.4443315952315</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>201.5110155847058</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814337</v>
+        <v>113.7908296814375</v>
       </c>
       <c r="E3" t="n">
-        <v>504.20371416263</v>
+        <v>504.2037141626263</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>234.0895511156621</v>
       </c>
       <c r="D4" t="n">
-        <v>132.829193313245</v>
+        <v>132.8291933132497</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044216</v>
+        <v>618.2639565044167</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>132.829193313245</v>
+        <v>132.8291933132497</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044216</v>
+        <v>618.2639565044167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>132.829193313245</v>
+        <v>132.8291933132497</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044216</v>
+        <v>618.2639565044167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5634869686529</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753918</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399027</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988715</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.6436733987107</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>312.1291528004781</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,19 +27509,19 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>42.33119825504554</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377128</v>
       </c>
       <c r="V3" t="n">
-        <v>131.7424418111843</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.1513221624006</v>
       </c>
       <c r="T4" t="n">
-        <v>196.6531084818138</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713063</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271751</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577515</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>323.9242312169093</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.19224570849374</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>33.77820013930392</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>201.9834258151126</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>83.64251498417389</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>28.34937989175816</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>86.1355097141834</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787287</v>
+        <v>76.60428439787231</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734616</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>94.91414938975976</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.2918076971921</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155192</v>
+        <v>25.42862793155165</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>93.29116482236361</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>19.13581157228896</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>109.7914862202135</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>108.608555768565</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305867</v>
+        <v>107.2570757305864</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>199.8105290935692</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-3.099138102943219e-12</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674545</v>
+        <v>3.47244939167456</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248694</v>
+        <v>35.5622223324871</v>
       </c>
       <c r="I8" t="n">
-        <v>133.871605172533</v>
+        <v>133.8716051725336</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566377</v>
+        <v>294.719801556639</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062213</v>
+        <v>441.7085843062231</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766812</v>
+        <v>547.9785573766836</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458733</v>
+        <v>609.7317292458761</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799687</v>
+        <v>619.5978260799715</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415049</v>
+        <v>585.0686574415075</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845396</v>
+        <v>499.3425630845417</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451948</v>
+        <v>374.9854692451964</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997763</v>
+        <v>218.1262490997773</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278377</v>
+        <v>79.12844051278411</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205533</v>
+        <v>15.20064721205539</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339636</v>
+        <v>0.2777959513339647</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328509</v>
+        <v>1.857924219328517</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930429</v>
+        <v>17.94363653930437</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986316</v>
+        <v>63.96800491986343</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743659</v>
+        <v>175.5330947743666</v>
       </c>
       <c r="K9" t="n">
-        <v>300.014017469376</v>
+        <v>300.0140174693773</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169204</v>
+        <v>403.4058705169222</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675787</v>
+        <v>470.7556234675808</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436898</v>
+        <v>483.2151240436919</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627791</v>
+        <v>442.047434762781</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873888</v>
+        <v>354.7820379873903</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391971</v>
+        <v>237.1623968391981</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070806</v>
+        <v>115.3542774070811</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498347</v>
+        <v>34.51012749498362</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363593</v>
+        <v>7.488738410363626</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347704</v>
+        <v>0.1222318565347709</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765489</v>
+        <v>1.557621253765495</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529681</v>
+        <v>13.84866896529687</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869307</v>
+        <v>46.84191915869327</v>
       </c>
       <c r="J10" t="n">
-        <v>110.12382264122</v>
+        <v>110.1238226412205</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011176</v>
+        <v>180.9672693011184</v>
       </c>
       <c r="L10" t="n">
-        <v>231.57579985528</v>
+        <v>231.575799855281</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243483</v>
+        <v>244.1642116243494</v>
       </c>
       <c r="N10" t="n">
-        <v>238.358532405768</v>
+        <v>238.3585324057691</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231439</v>
+        <v>220.1626841231448</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463277</v>
+        <v>188.3872105463286</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130356</v>
+        <v>130.4295397130361</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658276</v>
+        <v>70.03631564658306</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516764</v>
+        <v>27.14509039516776</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543449</v>
+        <v>6.655290811543478</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629947</v>
+        <v>0.08496115929629984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>698.8508668798656</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32789,10 +32789,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,25 +33260,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>550.5977692975241</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34866,13 +34866,13 @@
         <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663196</v>
+        <v>169.4872848053129</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2010091933409</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.94484524048465</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35021,7 +35021,7 @@
         <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.605587369179</v>
+        <v>413.96544578578</v>
       </c>
       <c r="N6" t="n">
         <v>288.2160307407402</v>
@@ -35033,7 +35033,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299514</v>
+        <v>113.6738970299527</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612407</v>
+        <v>221.6187332612426</v>
       </c>
       <c r="L8" t="n">
-        <v>312.212142406694</v>
+        <v>312.2121424066964</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186006</v>
+        <v>379.3854960186034</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833778</v>
+        <v>390.1847624833806</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198182</v>
+        <v>354.9704460198208</v>
       </c>
       <c r="P8" t="n">
-        <v>268.10956732927</v>
+        <v>268.1095673292722</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707453</v>
+        <v>152.6797793707469</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644193</v>
+        <v>2.540711285645159</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769918</v>
+        <v>48.69546810769995</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075956</v>
+        <v>162.1725784950183</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370462</v>
+        <v>264.851490737048</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455604</v>
+        <v>554.4443315952315</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603565</v>
+        <v>351.8734119603586</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183347</v>
+        <v>299.4511903183366</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730585</v>
+        <v>416.7064412384914</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.4369384556913</v>
+        <v>97.18062275317661</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454726</v>
+        <v>16.76464252454774</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752348</v>
+        <v>158.6977774752356</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155961</v>
+        <v>259.1658251155972</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861889</v>
+        <v>283.74808858619</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849966</v>
+        <v>282.4907047849977</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371835</v>
+        <v>244.7478120371845</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112212</v>
+        <v>185.665769811222</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134122</v>
+        <v>44.26749646134176</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578473</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>416.6233618831939</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37482,7 +37482,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998972</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010406</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
